--- a/BacklogWIP.xlsx
+++ b/BacklogWIP.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,11 +18,168 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+  <si>
+    <t>Player Setup</t>
+  </si>
+  <si>
+    <t>Multiplayer Setup</t>
+  </si>
+  <si>
+    <t>Movements</t>
+  </si>
+  <si>
+    <t>Camera Setup</t>
+  </si>
+  <si>
+    <t>Winning Condition</t>
+  </si>
+  <si>
+    <t>Player Ranking</t>
+  </si>
+  <si>
+    <t>Player Visual</t>
+  </si>
+  <si>
+    <t>Player Action</t>
+  </si>
+  <si>
+    <t>Enemy Setup</t>
+  </si>
+  <si>
+    <t>Player Nickname</t>
+  </si>
+  <si>
+    <t>Game Setup</t>
+  </si>
+  <si>
+    <t>Game Win</t>
+  </si>
+  <si>
+    <t>Game Reset</t>
+  </si>
+  <si>
+    <t>Enemy Action</t>
+  </si>
+  <si>
+    <t>Anti Cheat</t>
+  </si>
+  <si>
+    <t>Continuous Integration</t>
+  </si>
+  <si>
+    <t>Ideas</t>
+  </si>
+  <si>
+    <t>TPS/FPS</t>
+  </si>
+  <si>
+    <t>Team deathmatch / Deatmatch with AI enemies</t>
+  </si>
+  <si>
+    <t>Walking Running Jump (Dash?)</t>
+  </si>
+  <si>
+    <t>Camera follows the player (on shoulder/isometric)</t>
+  </si>
+  <si>
+    <t>Expiration time with kill based score</t>
+  </si>
+  <si>
+    <t>Ranking based on kill/death ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// </t>
+  </si>
+  <si>
+    <t>Shooting, Parry (Melee Attack?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player Nickname showed as tag </t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>When a player won the game shows the rank for the concluded match</t>
+  </si>
+  <si>
+    <t>When there are no connected player Game mode pass from TDM with AI to DM with AI</t>
+  </si>
+  <si>
+    <t>Enemy actions are based on melee attack and parry</t>
+  </si>
+  <si>
+    <t>Expected Difficulty</t>
+  </si>
+  <si>
+    <t>Github Setup</t>
+  </si>
+  <si>
+    <t>Project will be hosted on https://github.com/antonioguarino/SoftwareEngineeringProj/</t>
+  </si>
+  <si>
+    <t>Kick/Ban vote system?</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Backlog (WIP)</t>
+  </si>
+  <si>
+    <t>Sprint #</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,11 +206,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +505,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>